--- a/documents/state_codes.xlsx
+++ b/documents/state_codes.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>Andaman and Nicobar Islands</t>
   </si>
@@ -246,13 +247,31 @@
   </si>
   <si>
     <t>WB</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,16 +279,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,12 +308,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C2:C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,4 +1070,565 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D1:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"insert into gst_state (name, code,short_name) values('" &amp; A1 &amp;"', '" &amp; B1&amp; "','" &amp; C1&amp; "');"</f>
+        <v>insert into gst_state (name, code,short_name) values('Andaman and Nicobar Islands', '35','AN');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D36" si="0">"insert into gst_state (name, code,short_name) values('" &amp; A2 &amp;"', '" &amp; B2&amp; "','" &amp; C2&amp; "');"</f>
+        <v>insert into gst_state (name, code,short_name) values('Andhra Pradesh', '37','AD');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Arunachal Pradesh', '12','AR');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Assam', '18','AS');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Bihar', '10','BR');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Chandigarh', '4','CH');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Chattisgarh', '22','CG');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Dadra and Nagar Haveli', '26','DN');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Daman and Diu', '25','DD');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Delhi', '7','DL');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Goa', '30','GA');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Gujarat', '24','GJ');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Haryana', '6','HR');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Himachal Pradesh', '2','HP');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Jammu and Kashmir', '1','JK');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Jharkhand', '20','JH');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Karnataka', '29','KA');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Kerala', '32','KL');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Lakshadweep Islands', '31','LD');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Madhya Pradesh', '23','MP');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Maharashtra', '27','MH');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Manipur', '14','MN');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Meghalaya', '17','ML');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Mizoram', '15','MZ');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Nagaland', '13','NL');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Odisha', '21','OD');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Pondicherry', '34','PY');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Punjab', '3','PB');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Rajasthan', '8','RJ');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Sikkim', '11','SK');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Tamil Nadu', '33','TN');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Telangana', '36','TS');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Tripura', '16','TR');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Uttar Pradesh', '9','UP');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('Uttarakhand', '5','UK');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gst_state (name, code,short_name) values('West Bengal', '19','WB');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>